--- a/data/abilities.xlsx
+++ b/data/abilities.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="88">
   <si>
     <t>Abilites</t>
   </si>
@@ -76,127 +76,160 @@
     <t>Summon</t>
   </si>
   <si>
+    <t>Counter</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
-    <t>Counter</t>
-  </si>
-  <si>
     <t>Maxtargets</t>
   </si>
   <si>
+    <t>Doomed</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Veil</t>
+  </si>
+  <si>
+    <t>Banish</t>
+  </si>
+  <si>
     <t>Cooldown</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Banish</t>
-  </si>
-  <si>
     <t>Zeal</t>
   </si>
   <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Purify</t>
+  </si>
+  <si>
     <t>Lock</t>
   </si>
   <si>
-    <t>Doomed</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Purify</t>
-  </si>
-  <si>
     <t>Poison</t>
   </si>
   <si>
+    <t>Resilient</t>
+  </si>
+  <si>
     <t>Barricade</t>
   </si>
   <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>Reveal</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
     <t>Bleeding</t>
   </si>
   <si>
-    <t>Reveal</t>
-  </si>
-  <si>
-    <t>Resilient</t>
+    <t>Initiative</t>
   </si>
   <si>
     <t>Deathblow</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Bleed</t>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>Disloyal</t>
+  </si>
+  <si>
+    <t>Charge</t>
   </si>
   <si>
     <t>Deathwish</t>
   </si>
   <si>
-    <t>Discard</t>
-  </si>
-  <si>
-    <t>Heal</t>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Bonded</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Dragons_dream</t>
+  </si>
+  <si>
+    <t>Cataclysm</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Restoration</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Seize</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Thrive</t>
+  </si>
+  <si>
+    <t>Consume</t>
+  </si>
+  <si>
+    <t>Dominance</t>
+  </si>
+  <si>
+    <t>Devotion</t>
+  </si>
+  <si>
+    <t>Exposed</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Blood_moon</t>
+  </si>
+  <si>
+    <t>Assimilate</t>
   </si>
   <si>
     <t>Spying</t>
   </si>
   <si>
-    <t>Initiative</t>
-  </si>
-  <si>
-    <t>Drain</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>Bonded</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Immune</t>
-  </si>
-  <si>
-    <t>Provision</t>
-  </si>
-  <si>
-    <t>Seize</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Restoration</t>
-  </si>
-  <si>
-    <t>Charges</t>
-  </si>
-  <si>
-    <t>Consume</t>
-  </si>
-  <si>
-    <t>Thrive</t>
-  </si>
-  <si>
-    <t>Dominance</t>
-  </si>
-  <si>
-    <t>Exposed</t>
-  </si>
-  <si>
-    <t>Defender</t>
-  </si>
-  <si>
-    <t>Provisions</t>
-  </si>
-  <si>
-    <t>Assimilate</t>
+    <t>Conspiracy</t>
   </si>
   <si>
     <t>Set</t>
@@ -220,6 +253,9 @@
     <t>Harmony</t>
   </si>
   <si>
+    <t>Symbiosis</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
@@ -233,6 +269,12 @@
   </si>
   <si>
     <t>Berserk</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Rupture</t>
   </si>
   <si>
     <t>Fee</t>
@@ -620,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,40 +678,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -680,35 +722,35 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -730,29 +772,29 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,67 +805,67 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -834,7 +876,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -845,29 +887,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -878,29 +920,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -911,7 +953,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -922,7 +964,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -933,7 +975,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -944,29 +986,29 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -977,7 +1019,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -988,7 +1030,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -999,7 +1041,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1021,7 +1063,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1032,7 +1074,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1049,6 +1091,17 @@
         <v>39</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
@@ -1059,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1075,21 +1128,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1097,32 +1150,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1130,7 +1183,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1144,9 +1197,86 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -1176,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1209,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1220,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1252,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1274,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1287,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,21 +1433,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -1325,65 +1455,65 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>17</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1391,10 +1521,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -1402,21 +1532,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1424,32 +1554,32 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1457,13 +1587,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1471,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1479,10 +1609,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1490,10 +1620,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1501,10 +1631,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1512,21 +1642,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1534,10 +1664,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1545,32 +1675,32 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1578,10 +1708,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1589,10 +1719,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1600,7 +1730,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -1611,10 +1741,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1622,21 +1752,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1644,10 +1774,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1655,10 +1785,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1666,10 +1796,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1677,12 +1807,45 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -1693,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1709,46 +1872,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1756,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1764,10 +1927,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1775,10 +1938,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1786,10 +1949,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1797,10 +1960,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1808,7 +1971,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1819,10 +1982,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1830,10 +1993,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1841,10 +2004,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1852,10 +2015,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1863,10 +2026,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1877,9 +2040,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1931,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1942,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1953,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1985,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1996,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2007,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2020,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2042,51 +2227,51 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2097,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2108,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2116,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2124,10 +2309,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2135,65 +2320,65 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2201,29 +2386,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -2234,10 +2419,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2245,54 +2430,54 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2300,10 +2485,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2311,10 +2496,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2322,65 +2507,65 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2388,12 +2573,45 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
@@ -2404,7 +2622,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,29 +2638,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2456,51 +2674,51 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2508,10 +2726,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2519,12 +2737,34 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -2554,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -2565,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2587,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2609,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2620,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2633,7 +2873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2649,13 +2889,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2666,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2674,62 +2914,62 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2737,7 +2977,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -2748,32 +2988,32 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2781,10 +3021,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2792,10 +3032,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2803,10 +3043,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2814,10 +3054,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2825,10 +3065,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2836,10 +3076,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2847,10 +3087,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2858,10 +3098,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2872,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2880,10 +3120,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2891,12 +3131,100 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
@@ -2950,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2966,24 +3294,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2999,29 +3327,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3032,65 +3360,65 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3098,10 +3426,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3109,65 +3437,65 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3178,7 +3506,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3186,10 +3514,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -3197,32 +3525,32 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
         <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3230,43 +3558,43 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3274,10 +3602,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3285,7 +3613,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -3296,12 +3624,56 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -3312,7 +3684,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3328,43 +3700,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -3372,32 +3744,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3405,10 +3777,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3416,10 +3788,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3427,10 +3799,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3438,10 +3810,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3449,10 +3821,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3460,12 +3832,56 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -3541,7 +3957,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3560,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3571,9 +3987,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -3584,7 +4022,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3600,13 +4038,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3614,139 +4052,139 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -3754,21 +4192,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3776,10 +4214,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -3787,10 +4225,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -3798,10 +4236,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3809,10 +4247,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -3820,7 +4258,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -3831,32 +4269,32 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3864,10 +4302,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -3875,21 +4313,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3897,10 +4335,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3908,10 +4346,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3919,21 +4357,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3941,10 +4379,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3952,54 +4390,54 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4007,10 +4445,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4018,10 +4456,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4029,10 +4467,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4040,12 +4478,34 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
@@ -4072,65 +4532,65 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4138,10 +4598,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4149,24 +4609,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4185,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4193,10 +4653,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4204,10 +4664,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4215,7 +4675,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4226,10 +4686,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4237,10 +4697,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4283,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4294,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4305,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4316,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4359,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4381,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4410,7 +4870,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4421,10 +4881,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -4443,7 +4903,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -4468,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4476,10 +4936,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -4487,10 +4947,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4498,10 +4958,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4509,10 +4969,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4520,10 +4980,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4531,10 +4991,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4542,10 +5002,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4553,7 +5013,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4564,10 +5024,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4575,10 +5035,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4589,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4618,7 +5078,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4629,7 +5089,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4640,10 +5100,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4651,10 +5111,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4665,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4676,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4700,7 +5160,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4716,21 +5176,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -4744,18 +5204,18 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4766,37 +5226,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4804,32 +5264,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -4837,54 +5297,54 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -4892,43 +5352,43 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -4936,109 +5396,109 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5046,10 +5506,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5057,10 +5517,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5068,10 +5528,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5079,10 +5539,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5090,12 +5550,67 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
@@ -5106,7 +5621,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5122,24 +5637,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5147,10 +5662,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5158,10 +5673,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5169,10 +5684,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5180,18 +5695,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5199,10 +5714,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5210,10 +5725,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5221,12 +5736,45 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
@@ -5256,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5267,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5310,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5334,7 +5882,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5350,40 +5898,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -5394,142 +5942,142 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
         <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5537,164 +6085,164 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5702,10 +6250,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5713,12 +6261,67 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
